--- a/Bases_de_Dados/FootyStats/Brazil Serie C_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Brazil Serie C_2025.xlsx
@@ -3971,7 +3971,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.54</v>
@@ -8546,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.4</v>
@@ -9203,7 +9203,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR40" t="n">
         <v>1.73</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="AP53" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53" t="n">
         <v>1.08</v>
@@ -12691,7 +12691,7 @@
         <v>1.54</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR56" t="n">
         <v>1.33</v>
@@ -14435,7 +14435,7 @@
         <v>2</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR64" t="n">
         <v>1.23</v>
@@ -16612,7 +16612,7 @@
         <v>0</v>
       </c>
       <c r="AP74" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.4</v>
@@ -19013,7 +19013,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR85" t="n">
         <v>1.31</v>
@@ -22280,7 +22280,7 @@
         <v>1.25</v>
       </c>
       <c r="AP100" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.17</v>
@@ -23155,7 +23155,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR104" t="n">
         <v>1.71</v>
@@ -25550,7 +25550,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.89</v>
@@ -28823,7 +28823,7 @@
         <v>1.85</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR130" t="n">
         <v>1.45</v>
@@ -29474,7 +29474,7 @@
         <v>1.57</v>
       </c>
       <c r="AP133" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ133" t="n">
         <v>1.3</v>
@@ -32529,7 +32529,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR147" t="n">
         <v>1.28</v>
@@ -34924,7 +34924,7 @@
         <v>0.38</v>
       </c>
       <c r="AP158" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.3</v>
@@ -37543,7 +37543,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ170" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR170" t="n">
         <v>1.43</v>
@@ -40156,7 +40156,7 @@
         <v>1.75</v>
       </c>
       <c r="AP182" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ182" t="n">
         <v>1.42</v>
@@ -40813,7 +40813,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ185" t="n">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AR185" t="n">
         <v>2.41</v>
@@ -42669,26 +42669,26 @@
         </is>
       </c>
       <c r="I194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M194" t="n">
         <v>0</v>
       </c>
       <c r="N194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>['11']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P194" t="inlineStr">
@@ -42772,10 +42772,10 @@
         <v>1.95</v>
       </c>
       <c r="AP194" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AQ194" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AR194" t="n">
         <v>1.17</v>
@@ -42787,31 +42787,31 @@
         <v>2.5</v>
       </c>
       <c r="AU194" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV194" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW194" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX194" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY194" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ194" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA194" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB194" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC194" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BD194" t="n">
         <v>0</v>
@@ -43420,25 +43420,25 @@
         <v>1.57</v>
       </c>
       <c r="AN197" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AO197" t="n">
         <v>1.55</v>
       </c>
       <c r="AP197" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.48</v>
       </c>
       <c r="AR197" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AS197" t="n">
         <v>1.56</v>
       </c>
       <c r="AT197" t="n">
-        <v>2.89</v>
+        <v>2.86</v>
       </c>
       <c r="AU197" t="n">
         <v>3</v>
@@ -43641,13 +43641,13 @@
         <v>1.55</v>
       </c>
       <c r="AO198" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP198" t="n">
         <v>1.52</v>
       </c>
       <c r="AQ198" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AR198" t="n">
         <v>1.52</v>
@@ -44295,22 +44295,22 @@
         <v>1.52</v>
       </c>
       <c r="AO201" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="AP201" t="n">
         <v>1.52</v>
       </c>
       <c r="AQ201" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AR201" t="n">
         <v>1.54</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AT201" t="n">
-        <v>2.88</v>
+        <v>2.85</v>
       </c>
       <c r="AU201" t="n">
         <v>7</v>
@@ -44510,25 +44510,25 @@
         <v>1.44</v>
       </c>
       <c r="AN202" t="n">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
       <c r="AO202" t="n">
         <v>1.52</v>
       </c>
       <c r="AP202" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AQ202" t="n">
         <v>1.48</v>
       </c>
       <c r="AR202" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS202" t="n">
         <v>1.57</v>
       </c>
       <c r="AT202" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="AU202" t="n">
         <v>5</v>
@@ -45385,22 +45385,22 @@
         <v>1.5</v>
       </c>
       <c r="AO206" t="n">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="AP206" t="n">
         <v>1.48</v>
       </c>
       <c r="AQ206" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AR206" t="n">
         <v>1.54</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT206" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU206" t="n">
         <v>5</v>
@@ -45600,25 +45600,25 @@
         <v>1.67</v>
       </c>
       <c r="AN207" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AO207" t="n">
         <v>1.5</v>
       </c>
       <c r="AP207" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AQ207" t="n">
         <v>1.52</v>
       </c>
       <c r="AR207" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS207" t="n">
         <v>1.57</v>
       </c>
       <c r="AT207" t="n">
-        <v>2.92</v>
+        <v>2.89</v>
       </c>
       <c r="AU207" t="n">
         <v>7</v>
@@ -46254,25 +46254,25 @@
         <v>0</v>
       </c>
       <c r="AN210" t="n">
-        <v>1.52</v>
+        <v>1.43</v>
       </c>
       <c r="AO210" t="n">
         <v>1.57</v>
       </c>
       <c r="AP210" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AQ210" t="n">
         <v>1.52</v>
       </c>
       <c r="AR210" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS210" t="n">
         <v>1.55</v>
       </c>
       <c r="AT210" t="n">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU210" t="n">
         <v>4</v>
@@ -46475,22 +46475,22 @@
         <v>1.43</v>
       </c>
       <c r="AO211" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="AP211" t="n">
         <v>1.48</v>
       </c>
       <c r="AQ211" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AR211" t="n">
         <v>1.57</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT211" t="n">
-        <v>2.95</v>
+        <v>2.93</v>
       </c>
       <c r="AU211" t="n">
         <v>7</v>
@@ -47053,7 +47053,7 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>['80']</t>
+          <t>['79']</t>
         </is>
       </c>
       <c r="Q214" t="n">
@@ -47126,25 +47126,25 @@
         <v>1.74</v>
       </c>
       <c r="AN214" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="AO214" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AP214" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AQ214" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AR214" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AT214" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU214" t="n">
         <v>4</v>
@@ -47266,12 +47266,12 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>['33', '86']</t>
+          <t>['34', '88']</t>
         </is>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['75']</t>
         </is>
       </c>
       <c r="Q215" t="n">
@@ -47702,7 +47702,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>['48', '73']</t>
+          <t>['49', '73']</t>
         </is>
       </c>
       <c r="P217" t="inlineStr">
